--- a/ChiaYiExcessCompetition/Template/Template.xlsx
+++ b/ChiaYiExcessCompetition/Template/Template.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evang\Desktop\國中超額比序\嘉義區\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\JHExcessCompetition\ChiaYiExcessCompetition\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA0ADC-6BEA-4D7B-99C6-C8F1DC0C3A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25485" windowHeight="10950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="藝術">Student!$AF$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -148,9 +152,6 @@
     <t>健康與體育</t>
   </si>
   <si>
-    <t>藝術與人文</t>
-  </si>
-  <si>
     <t>綜合活動</t>
   </si>
   <si>
@@ -190,12 +191,16 @@
   <si>
     <t>輔導教師意見_高職</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藝術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -597,44 +602,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="38" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="9" customFormat="1">
@@ -732,116 +737,116 @@
         <v>30</v>
       </c>
       <c r="AF1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="29">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不符，1/相符" sqref="AL1:AQ1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不符，1/相符" sqref="AL1:AQ1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"0,3,6,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="達標準選1_x000a_未達標準選0" sqref="AE1:AG1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="達標準選1_x000a_未達標準選0" sqref="AE1:AG1" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="座號須為2碼數字(ex:01、02...)" sqref="F1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="座號須為2碼數字(ex:01、02...)" sqref="F1" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請加區碼，並請勿使用-或( )等字元。因應新網路電話號碼長度，本欄位支援至14碼" sqref="Z1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請加區碼，並請勿使用-或( )等字元。因應新網路電話號碼長度，本欄位支援至14碼" sqref="Z1" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>14</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請勿使用-或( )等字元。因應新網路電話號碼長度，本欄位支援至14碼" sqref="AB1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請勿使用-或( )等字元。因應新網路電話號碼長度，本欄位支援至14碼" sqref="AB1" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>14</formula1>
     </dataValidation>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入中華民國身分證統一編號或具有身分認定之非中華民國身分證統一編號其他證號(ex：護照號碼)" sqref="H1"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="使用「非」中華民國身分證號的學生請輸入：V_x000a_使用中華民國身分證號的學生請留「空白」即可" sqref="I1">
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入中華民國身分證統一編號或具有身分認定之非中華民國身分證統一編號其他證號(ex：護照號碼)" sqref="H1" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="使用「非」中華民國身分證號的學生請輸入：V_x000a_使用中華民國身分證號的學生請留「空白」即可" sqref="I1" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"非中華民國身分證號"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不同意，1/同意" sqref="X1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不同意，1/同意" sqref="X1" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"資料授權"</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="W1">
+    <dataValidation type="custom" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="W1" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"失業勞工子女"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="V1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="V1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"中低收入戶"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="U1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/否，1/是" sqref="U1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"低收入戶"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1/男，2/女" sqref="J1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1/男，2/女" sqref="J1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"性別"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="班級須為2碼數字(ex:01、02...)" sqref="E1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="班級須為2碼數字(ex:01、02...)" sqref="E1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/無              7/身體病弱_x000a_1/智能障礙  8/情緒行為障礙_x000a_2/視覺障礙  9/學習障礙_x000a_3/聽覺障礙  A/多重障礙_x000a_4/語言障礙  B/自閉症_x000a_5/肢體障礙  C/發展遲緩_x000a_6/腦性麻痺  D/其他障礙" sqref="S1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/一般生                9/退伍軍人20%_x000a_1/身障生                A/退伍軍人15%_x000a_2/原住民(有認證) B/退伍軍人10%_x000a_3/原住民(無認證) C/退伍軍人5%_x000a_4/蒙藏生                D/退伍軍人3% _x000a_5/外派子女25%    E/優秀子女25%_x000a_6/外派子女15%    F/優秀子女15%_x000a_7/外派子女10%    G/優秀子女10%_x000a_8/退伍軍人25%    H/僑生" sqref="R1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/肄業_x000a_1/畢業" sqref="P1"/>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 一般生_x000a_1 原住民_x000a_2 派外人員子女_x000a_3 蒙藏生_x000a_4 回國僑生_x000a_5 港澳生_x000a_6 退伍軍人_x000a_7 境外優秀科學技術人才子女" sqref="Q1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此欄位不需填寫。請_x000a_勿刪除，保留空白即_x000a_可。" sqref="T1"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="01/臺北考區，02/新北考區_x000a_03/宜蘭考區，04/基隆考區_x000a_05/桃園考區，06/竹苗考區_x000a_07/中投考區，08/彰化考區_x000a_09/雲林考區，10/嘉義考區_x000a_11/臺南考區，12/屏東考區_x000a_13/高雄考區，14/花蓮考區_x000a_15/臺東考區，16/澎湖考區_x000a_17/金門考區，18/馬祖考區_x000a_19/大陸考場" sqref="A1"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/無              7/身體病弱_x000a_1/智能障礙  8/情緒行為障礙_x000a_2/視覺障礙  9/學習障礙_x000a_3/聽覺障礙  A/多重障礙_x000a_4/語言障礙  B/自閉症_x000a_5/肢體障礙  C/發展遲緩_x000a_6/腦性麻痺  D/其他障礙" sqref="S1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/一般生                9/退伍軍人20%_x000a_1/身障生                A/退伍軍人15%_x000a_2/原住民(有認證) B/退伍軍人10%_x000a_3/原住民(無認證) C/退伍軍人5%_x000a_4/蒙藏生                D/退伍軍人3% _x000a_5/外派子女25%    E/優秀子女25%_x000a_6/外派子女15%    F/優秀子女15%_x000a_7/外派子女10%    G/優秀子女10%_x000a_8/退伍軍人25%    H/僑生" sqref="R1" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/肄業_x000a_1/畢業" sqref="P1" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 一般生_x000a_1 原住民_x000a_2 派外人員子女_x000a_3 蒙藏生_x000a_4 回國僑生_x000a_5 港澳生_x000a_6 退伍軍人_x000a_7 境外優秀科學技術人才子女" sqref="Q1" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此欄位不需填寫。請_x000a_勿刪除，保留空白即_x000a_可。" sqref="T1" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="01/臺北考區，02/新北考區_x000a_03/宜蘭考區，04/基隆考區_x000a_05/桃園考區，06/竹苗考區_x000a_07/中投考區，08/彰化考區_x000a_09/雲林考區，10/嘉義考區_x000a_11/臺南考區，12/屏東考區_x000a_13/高雄考區，14/花蓮考區_x000a_15/臺東考區，16/澎湖考區_x000a_17/金門考區，18/馬祖考區_x000a_19/大陸考場" sqref="A1" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000017000000}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0000-000018000000}">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="錯誤" error="學號欄位不可為空、並且資料長度小於10個字元" sqref="O1">
+    <dataValidation type="whole" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="錯誤" error="學號欄位不可為空、並且資料長度小於10個字元" sqref="O1" xr:uid="{00000000-0002-0000-0000-000019000000}">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入3碼郵遞區號" sqref="AC1">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入3碼郵遞區號" sqref="AC1" xr:uid="{00000000-0002-0000-0000-00001A000000}">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-00001B000000}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="部定校代碼(6碼)" sqref="B1 N1">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="部定校代碼(6碼)" sqref="B1 N1" xr:uid="{00000000-0002-0000-0000-00001C000000}">
       <formula1>6</formula1>
     </dataValidation>
   </dataValidations>

--- a/ChiaYiExcessCompetition/Template/Template.xlsx
+++ b/ChiaYiExcessCompetition/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\JHExcessCompetition\ChiaYiExcessCompetition\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\JHExcessCompetition\ChiaYiExcessCompetition\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA0ADC-6BEA-4D7B-99C6-C8F1DC0C3A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F1F78-F79F-4C17-9D82-BF484044FAE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>考區代碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>藝術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,46 +607,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" customWidth="1"/>
+    <col min="35" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="9" customFormat="1">
+    <row r="1" spans="1:44" s="9" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,47 +748,50 @@
       <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="29">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不符，1/相符" sqref="AL1:AQ1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0/不符，1/相符" sqref="AM1:AR1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"0,3,6,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="達標準選1_x000a_未達標準選0" sqref="AE1:AG1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="達標準選1_x000a_未達標準選0" sqref="AE1:AG1 AH1:AH1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="座號須為2碼數字(ex:01、02...)" sqref="F1" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -851,5 +860,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ChiaYiExcessCompetition/Template/Template.xlsx
+++ b/ChiaYiExcessCompetition/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\JHExcessCompetition\ChiaYiExcessCompetition\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\JHExcessCompetition\ChiaYiExcessCompetition\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F1F78-F79F-4C17-9D82-BF484044FAE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7CFEA-E598-4D31-981C-2706FBF0F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="藝術">Student!$AF$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,10 +156,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通訊地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>健康與體育</t>
   </si>
   <si>
@@ -199,6 +206,10 @@
   <si>
     <t>科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,22 +317,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -609,9 +614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -648,7 +653,7 @@
     <col min="43" max="44" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="9" customFormat="1">
+    <row r="1" spans="1:44" s="7" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,10 +678,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -691,95 +696,95 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
